--- a/Manohar Reddy K S.xlsx
+++ b/Manohar Reddy K S.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89674549-E676-4CA5-A92C-81E8AEA27123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,25 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
   <si>
     <t>MANOHAR REDDY K.S.</t>
   </si>
@@ -303,30 +317,12 @@
     <t>Safty fire</t>
   </si>
   <si>
-    <t xml:space="preserve">Add:Salary Received from </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joulestowatts </t>
-  </si>
-  <si>
     <t>Wolks Wagen Car</t>
   </si>
   <si>
-    <t xml:space="preserve"> Business Solution</t>
-  </si>
-  <si>
-    <t>Add: Salary Received from</t>
-  </si>
-  <si>
     <t>Closing Stock</t>
   </si>
   <si>
-    <t>Accenture Solutions pvt.,</t>
-  </si>
-  <si>
-    <t>ltd.,</t>
-  </si>
-  <si>
     <t>Canara Bank C/A</t>
   </si>
   <si>
@@ -382,15 +378,18 @@
   </si>
   <si>
     <t>Cash and other Balances</t>
+  </si>
+  <si>
+    <t>Other Income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -509,75 +508,64 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -589,12 +577,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -676,9 +667,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -716,7 +707,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -788,7 +779,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -961,7 +952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1075,7 +1066,7 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1"/>
@@ -1113,220 +1104,168 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="12"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="12">
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="G17" s="9">
         <f>[1]Sheet29!C46</f>
         <v>505380</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="12">
+      <c r="D20" s="9"/>
+      <c r="E20" s="8"/>
+      <c r="G20" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="15"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="15"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="18">
+      <c r="E26" s="8"/>
+      <c r="G26" s="15">
         <f>G17-G20</f>
         <v>505380</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="19"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="8"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G28" s="14"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G29" s="14"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="9"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="9"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E35" s="22"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="12"/>
+      <c r="E35" s="19"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E37" s="22"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="22"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="22"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="16"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E41" s="23"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E43" s="24"/>
+      <c r="E43" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1334,7 +1273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:M51"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -1343,484 +1282,476 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="39" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="17.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C4" s="30"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C5" s="30"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="29"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C6" s="30"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="29"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C7" s="30"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C8" s="30"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C9" s="30"/>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C10" s="30"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C11" s="30"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C12" s="30"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="24">
         <v>842415</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="22">
         <v>32947827</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C14" s="30"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="24">
         <v>31119555</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C16" s="30"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="25" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="24">
         <v>387652</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="22">
         <v>7170</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="30"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="26">
         <v>403868</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="27">
         <f>SUM(F13:F18)</f>
         <v>33358865</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="24">
         <f>G22-C13-C15-C17</f>
         <v>2057504</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="33"/>
+      <c r="D19" s="6"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D20" s="26"/>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="22">
         <v>1048261</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="30"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C22" s="34">
+      <c r="C22" s="28">
         <f>SUM(C13:C21)</f>
         <v>34407126</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="33">
+      <c r="D22" s="6"/>
+      <c r="E22" s="27">
         <f>C22-G22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="29">
         <f>SUM(G13:G21)</f>
         <v>34407126</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C23" s="30"/>
-      <c r="D23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="30"/>
-      <c r="D24" s="36"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="24">
         <v>38762</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="25" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="22">
         <f>C19</f>
         <v>2057504</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="24">
         <v>8754</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="24">
         <v>132485</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="25" t="s">
+      <c r="D27" s="30"/>
+      <c r="E27" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="24">
         <v>2934</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="25" t="s">
+      <c r="D28" s="30"/>
+      <c r="E28" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="22">
         <v>1</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="24">
         <v>636000</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="25" t="s">
+      <c r="D29" s="30"/>
+      <c r="E29" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="22">
         <v>253</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="24">
         <v>72546</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="25" t="s">
+      <c r="D30" s="30"/>
+      <c r="E30" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="22">
         <v>128</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="24">
         <v>3546</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="30"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="22">
         <v>64985</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="25" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="22">
         <v>33000</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="22">
         <v>2500</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="G33" s="25"/>
+      <c r="D33" s="30"/>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="22">
         <v>240000</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="25" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="22">
         <v>38407</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="25" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="22">
         <v>485555</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="22">
         <v>359</v>
       </c>
-      <c r="D36" s="36"/>
+      <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="22">
         <v>82500</v>
       </c>
-      <c r="D37" s="36"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="22">
         <v>67345</v>
       </c>
-      <c r="D38" s="36"/>
+      <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="22">
         <v>365482</v>
       </c>
-      <c r="D39" s="36"/>
+      <c r="D39" s="30"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="22">
         <v>23716</v>
       </c>
-      <c r="D40" s="36"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="22">
         <v>578</v>
       </c>
-      <c r="D41" s="36"/>
+      <c r="D41" s="30"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="22">
         <v>44482</v>
       </c>
-      <c r="D42" s="36"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="22">
         <v>245680</v>
       </c>
-      <c r="D43" s="36"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C44" s="27"/>
-      <c r="D44" s="36"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C45" s="27"/>
-      <c r="D45" s="36"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="19">
         <f>G49-C25-C26-C27-C28-C29-C30-C31-C32-C33-C34-C35-C36-C37-C38-C39-C40-C41-C42-C43</f>
         <v>505380</v>
       </c>
-      <c r="D46" s="36"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C47" s="30"/>
-      <c r="D47" s="36"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D48" s="36"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C49" s="37">
+      <c r="C49" s="31">
         <f>SUM(C25:C48)</f>
         <v>2576441</v>
       </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="33">
+      <c r="D49" s="30"/>
+      <c r="E49" s="27">
         <f>C49-G49</f>
         <v>0</v>
       </c>
-      <c r="G49" s="38">
+      <c r="G49" s="32">
         <f>SUM(G25:G48)</f>
         <v>2576441</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C51" s="30"/>
-      <c r="D51" s="36"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1828,97 +1759,97 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="13.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="1.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="2"/>
     <col min="8" max="8" width="12.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="19" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E1" s="40"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D5" s="14"/>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D6" s="14"/>
-      <c r="E6" s="26" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D7" s="14"/>
-      <c r="E7" s="26" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D8" s="14"/>
-      <c r="E8" s="26" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D9" s="14"/>
-      <c r="F9" s="5"/>
-      <c r="H9" s="14"/>
+      <c r="D9" s="11"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="14"/>
-      <c r="E10" s="26" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="26"/>
-      <c r="H11" s="14"/>
+      <c r="A11" s="34"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="6"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="2" t="s">
         <v>76</v>
       </c>
@@ -1927,14 +1858,14 @@
       <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="19">
         <v>3867875</v>
       </c>
-      <c r="E13" s="26"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="19">
         <v>180000</v>
       </c>
     </row>
@@ -1942,15 +1873,15 @@
       <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="35">
         <v>276664</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <v>100000</v>
       </c>
     </row>
@@ -1958,20 +1889,20 @@
       <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="19">
         <v>59294</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="19">
         <v>27643</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="2" t="s">
         <v>83</v>
       </c>
@@ -1980,14 +1911,14 @@
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="19">
         <v>1272</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="19">
         <v>50000</v>
       </c>
     </row>
@@ -1995,23 +1926,23 @@
       <c r="A18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="19">
         <v>1500</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="19">
         <v>195000</v>
       </c>
-      <c r="E19" s="26"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="19">
         <v>45000</v>
       </c>
     </row>
@@ -2019,21 +1950,21 @@
       <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="13">
         <v>2700</v>
       </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C21" s="22">
+      <c r="C21" s="19">
         <f>C13-C14-C15-C16-C17-C18-C19-C20</f>
         <v>3303802</v>
       </c>
-      <c r="E21" s="26"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="19">
         <v>75000</v>
       </c>
     </row>
@@ -2041,345 +1972,331 @@
       <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="35">
         <f>[1]Sheet29!C46</f>
         <v>505380</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="26"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="19">
         <v>2700</v>
       </c>
-      <c r="E23" s="26"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="19">
         <v>1440</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="27"/>
-      <c r="E24" s="26"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="I25" s="19">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="E26" s="6"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="6"/>
+      <c r="F27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" s="22">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="27">
-        <v>204498</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I27" s="22">
+      <c r="I27" s="19">
         <f>[1]Sheet29!G20</f>
         <v>1048261</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="26"/>
+      <c r="E28" s="6"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="16">
-        <v>944400</v>
-      </c>
-      <c r="D29" s="42">
+        <v>115</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1148898</v>
+      </c>
+      <c r="D29" s="35">
         <f>SUM(C21:C29)</f>
         <v>4960780</v>
       </c>
-      <c r="E29" s="26"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E30" s="26"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" s="22">
+        <v>97</v>
+      </c>
+      <c r="I30" s="19">
         <v>61812</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="26"/>
+      <c r="A31" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="22">
+        <v>100</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="19">
         <v>260068</v>
       </c>
-      <c r="E32" s="26"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
-      <c r="E33" s="26"/>
+      <c r="A33" s="34"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="22">
+        <v>102</v>
+      </c>
+      <c r="I33" s="19">
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="22">
+        <v>103</v>
+      </c>
+      <c r="D34" s="19">
         <v>540100</v>
       </c>
-      <c r="E34" s="26"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D35" s="15"/>
-      <c r="E35" s="26"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="22">
+        <v>105</v>
+      </c>
+      <c r="D36" s="19">
         <v>800000</v>
       </c>
-      <c r="E36" s="26"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I36" s="22">
+        <v>106</v>
+      </c>
+      <c r="I36" s="19">
         <v>264</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E37" s="26"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="22">
+        <v>107</v>
+      </c>
+      <c r="C38" s="19">
         <v>9182</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="26"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I38" s="22">
+        <v>108</v>
+      </c>
+      <c r="I38" s="19">
         <v>3076681</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="16">
+        <v>109</v>
+      </c>
+      <c r="C39" s="13">
         <v>1</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="14">
         <f>C38-C39</f>
         <v>9181</v>
       </c>
-      <c r="E39" s="26"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E40" s="26"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" s="22">
+        <v>110</v>
+      </c>
+      <c r="I40" s="19">
         <v>289000</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D41" s="22"/>
-      <c r="E41" s="26"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E42" s="26"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I42" s="22">
+        <v>111</v>
+      </c>
+      <c r="I42" s="19">
         <v>340983</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E43" s="26"/>
+      <c r="E43" s="6"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E44" s="26"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I44" s="22">
+        <v>112</v>
+      </c>
+      <c r="I44" s="19">
         <v>750000</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E45" s="26"/>
+      <c r="E45" s="6"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E46" s="26"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I46" s="22">
+        <v>113</v>
+      </c>
+      <c r="I46" s="19">
         <v>100000</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E47" s="26"/>
+      <c r="E47" s="6"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E48" s="26"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I48" s="22">
+        <v>114</v>
+      </c>
+      <c r="I48" s="19">
         <f>D51-I13-I14-I17-I19-I21-I23-I25-I27-I30-I33-I36-I38-I40-I42-I44-I46</f>
         <v>51687</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E49" s="26"/>
+      <c r="E49" s="6"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D50" s="43"/>
-      <c r="H50" s="22"/>
+      <c r="D50" s="36"/>
+      <c r="H50" s="19"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C51" s="2"/>
-      <c r="D51" s="44">
+      <c r="D51" s="37">
         <f>SUM(D15:D50)</f>
         <v>6570129</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="I51" s="45">
+      <c r="F51" s="14"/>
+      <c r="I51" s="38">
         <f>SUM(I11:I50)</f>
         <v>6570129</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C52" s="2"/>
-      <c r="D52" s="43"/>
+      <c r="D52" s="36"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
-      <c r="D53" s="43"/>
+      <c r="D53" s="36"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C54" s="2"/>
-      <c r="D54" s="43"/>
+      <c r="D54" s="36"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
-      <c r="D55" s="43"/>
+      <c r="D55" s="36"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C56" s="2"/>
-      <c r="D56" s="43"/>
+      <c r="D56" s="36"/>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
-      <c r="D57" s="43"/>
+      <c r="D57" s="36"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C58" s="2"/>
-      <c r="D58" s="43"/>
+      <c r="D58" s="36"/>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
-      <c r="D59" s="43"/>
+      <c r="D59" s="36"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
-      <c r="D60" s="43"/>
+      <c r="D60" s="36"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
-      <c r="D61" s="43"/>
+      <c r="D61" s="36"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
-      <c r="D62" s="43"/>
+      <c r="D62" s="36"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C63" s="2"/>
-      <c r="D63" s="43"/>
+      <c r="D63" s="36"/>
       <c r="I63" s="2"/>
     </row>
   </sheetData>

--- a/Manohar Reddy K S.xlsx
+++ b/Manohar Reddy K S.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89674549-E676-4CA5-A92C-81E8AEA27123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787DBEC9-5949-4AF1-8EC2-E7DFE5C901DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
